--- a/ALIMENTOS.xlsx
+++ b/ALIMENTOS.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josel\Desktop\ESPOL\INTEGRADORA\PROYECTO\chatbot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832962E-EB90-43C2-881C-EF8544006B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SANOS" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="NO_SANOS" sheetId="2" r:id="rId5"/>
+    <sheet name="SANOS" sheetId="1" r:id="rId1"/>
+    <sheet name="NO_SANOS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -386,25 +395,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -414,50 +424,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -647,20 +658,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +708,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -724,7 +740,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -756,7 +772,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -788,7 +804,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -820,7 +836,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -852,7 +868,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -884,7 +900,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -916,7 +932,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -948,7 +964,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -980,7 +996,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1012,7 +1028,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1060,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1092,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +1124,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1156,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1188,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1220,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1252,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1284,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1300,9 +1316,9 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>22</v>
@@ -1332,7 +1348,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1380,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1412,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1444,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1476,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1508,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1524,7 +1540,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1572,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1588,7 +1604,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1636,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1668,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +1700,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1732,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1748,7 +1764,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1796,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1828,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1860,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1876,7 +1892,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -1908,7 +1924,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1940,7 +1956,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -1972,7 +1988,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -2004,7 +2020,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2052,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -2068,7 +2084,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -2100,7 +2116,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2148,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2164,7 +2180,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2196,7 +2212,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2228,7 +2244,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +2276,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -2292,7 +2308,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -2324,7 +2340,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -2356,7 +2372,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2388,7 +2404,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2420,7 +2436,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2452,7 +2468,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2484,7 +2500,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -2516,7 +2532,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2548,7 +2564,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +2596,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -2612,7 +2628,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2644,7 +2660,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2676,7 +2692,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
@@ -2708,7 +2724,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -2740,7 +2756,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2772,7 +2788,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2804,7 +2820,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2836,7 +2852,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -2868,7 +2884,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2900,7 +2916,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -2932,7 +2948,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
@@ -2964,7 +2980,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
@@ -2996,7 +3012,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -3028,7 +3044,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
@@ -3060,7 +3076,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -3092,7 +3108,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -3124,7 +3140,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -3156,7 +3172,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -3188,7 +3204,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -3220,7 +3236,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -3252,7 +3268,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
@@ -3284,7 +3300,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>78</v>
       </c>
@@ -3316,7 +3332,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
@@ -3348,7 +3364,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
@@ -3380,7 +3396,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -3412,7 +3428,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -3444,7 +3460,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -3476,7 +3492,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3504,7 +3520,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3532,7 +3548,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3560,7 +3576,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3588,7 +3604,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3616,7 +3632,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3644,7 +3660,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3672,7 +3688,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3700,7 +3716,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3728,7 +3744,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3756,7 +3772,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3784,7 +3800,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3812,7 +3828,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3840,7 +3856,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3868,7 +3884,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3896,7 +3912,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3924,7 +3940,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3952,7 +3968,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3980,7 +3996,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4008,7 +4024,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4036,7 +4052,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4064,7 +4080,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4092,7 +4108,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4120,7 +4136,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4148,7 +4164,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4176,7 +4192,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4204,7 +4220,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4232,7 +4248,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4260,7 +4276,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4288,7 +4304,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4316,7 +4332,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4344,7 +4360,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4372,7 +4388,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4400,7 +4416,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4428,7 +4444,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4456,7 +4472,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4484,7 +4500,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4512,7 +4528,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4540,7 +4556,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4568,7 +4584,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4596,7 +4612,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4624,7 +4640,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4652,7 +4668,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4680,7 +4696,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4708,7 +4724,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4736,7 +4752,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4764,7 +4780,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4792,7 +4808,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4820,7 +4836,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4848,7 +4864,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4876,7 +4892,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4904,7 +4920,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4932,7 +4948,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4960,7 +4976,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4988,7 +5004,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5016,7 +5032,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5044,7 +5060,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5072,7 +5088,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5100,7 +5116,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5128,7 +5144,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5156,7 +5172,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5184,7 +5200,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5212,7 +5228,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5240,7 +5256,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5268,7 +5284,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5296,7 +5312,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5324,7 +5340,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5352,7 +5368,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5380,7 +5396,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5408,7 +5424,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5436,7 +5452,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5464,7 +5480,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5492,7 +5508,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5520,7 +5536,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5548,7 +5564,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5576,7 +5592,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5604,7 +5620,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5632,7 +5648,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5660,7 +5676,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5688,7 +5704,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5716,7 +5732,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5744,7 +5760,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5772,7 +5788,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5800,7 +5816,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5828,7 +5844,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5856,7 +5872,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5884,7 +5900,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5912,7 +5928,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5940,7 +5956,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5968,7 +5984,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5996,7 +6012,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6024,7 +6040,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6052,7 +6068,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6080,7 +6096,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6108,7 +6124,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6136,7 +6152,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6164,7 +6180,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6192,7 +6208,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6220,7 +6236,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6248,7 +6264,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6276,7 +6292,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6304,7 +6320,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6332,7 +6348,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6360,7 +6376,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6388,7 +6404,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6416,7 +6432,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6444,7 +6460,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6472,7 +6488,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6500,7 +6516,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -6528,7 +6544,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -6556,7 +6572,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6584,7 +6600,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6612,7 +6628,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6640,7 +6656,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6668,7 +6684,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6696,7 +6712,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6724,7 +6740,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6752,7 +6768,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6780,7 +6796,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6808,7 +6824,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6836,7 +6852,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6864,7 +6880,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6892,7 +6908,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6920,7 +6936,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6948,7 +6964,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6976,7 +6992,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -7004,7 +7020,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -7032,7 +7048,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -7060,7 +7076,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -7088,7 +7104,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -7116,7 +7132,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -7144,7 +7160,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -7172,7 +7188,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -7200,7 +7216,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -7228,7 +7244,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -7256,7 +7272,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -7284,7 +7300,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -7312,7 +7328,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -7340,7 +7356,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -7368,7 +7384,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -7396,7 +7412,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -7424,7 +7440,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -7452,7 +7468,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -7480,7 +7496,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -7508,7 +7524,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -7536,7 +7552,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -7564,7 +7580,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -7592,7 +7608,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -7620,7 +7636,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7648,7 +7664,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7676,7 +7692,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7704,7 +7720,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7732,7 +7748,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7760,7 +7776,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7788,7 +7804,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7816,7 +7832,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7844,7 +7860,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7872,7 +7888,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7900,7 +7916,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7928,7 +7944,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7956,7 +7972,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7984,7 +8000,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -8012,7 +8028,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -8040,7 +8056,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -8068,7 +8084,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -8096,7 +8112,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -8124,7 +8140,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -8152,7 +8168,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -8180,7 +8196,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -8208,7 +8224,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -8236,7 +8252,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -8264,7 +8280,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -8292,7 +8308,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -8320,7 +8336,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -8348,7 +8364,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -8376,7 +8392,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -8404,7 +8420,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -8432,7 +8448,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -8460,7 +8476,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -8488,7 +8504,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -8516,7 +8532,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -8544,7 +8560,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -8572,7 +8588,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -8600,7 +8616,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -8628,7 +8644,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8656,7 +8672,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8684,7 +8700,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8712,7 +8728,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8740,7 +8756,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8768,7 +8784,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8796,7 +8812,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8824,7 +8840,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8852,7 +8868,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8880,7 +8896,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8908,7 +8924,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8936,7 +8952,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8964,7 +8980,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8992,7 +9008,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -9020,7 +9036,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -9048,7 +9064,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -9076,7 +9092,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -9104,7 +9120,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -9132,7 +9148,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -9160,7 +9176,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -9188,7 +9204,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -9216,7 +9232,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -9244,7 +9260,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -9272,7 +9288,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -9300,7 +9316,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -9328,7 +9344,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -9356,7 +9372,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -9384,7 +9400,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -9412,7 +9428,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -9440,7 +9456,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -9468,7 +9484,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -9496,7 +9512,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -9524,7 +9540,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -9552,7 +9568,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -9580,7 +9596,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -9608,7 +9624,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -9636,7 +9652,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9664,7 +9680,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9692,7 +9708,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9720,7 +9736,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9748,7 +9764,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9776,7 +9792,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9804,7 +9820,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9832,7 +9848,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9860,7 +9876,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9888,7 +9904,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9916,7 +9932,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9944,7 +9960,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9972,7 +9988,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -10000,7 +10016,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -10028,7 +10044,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -10056,7 +10072,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -10084,7 +10100,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -10112,7 +10128,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -10140,7 +10156,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -10168,7 +10184,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -10196,7 +10212,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -10224,7 +10240,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -10252,7 +10268,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -10280,7 +10296,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -10308,7 +10324,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -10336,7 +10352,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -10364,7 +10380,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -10392,7 +10408,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -10420,7 +10436,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -10448,7 +10464,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -10476,7 +10492,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -10504,7 +10520,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -10532,7 +10548,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -10560,7 +10576,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -10588,7 +10604,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -10616,7 +10632,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10644,7 +10660,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10672,7 +10688,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10700,7 +10716,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10728,7 +10744,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10756,7 +10772,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10784,7 +10800,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10812,7 +10828,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10840,7 +10856,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10868,7 +10884,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10896,7 +10912,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10924,7 +10940,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10952,7 +10968,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10980,7 +10996,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -11008,7 +11024,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -11036,7 +11052,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -11064,7 +11080,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -11092,7 +11108,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -11120,7 +11136,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -11148,7 +11164,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -11176,7 +11192,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -11204,7 +11220,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -11232,7 +11248,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -11260,7 +11276,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -11288,7 +11304,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -11316,7 +11332,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -11344,7 +11360,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -11372,7 +11388,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -11400,7 +11416,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -11428,7 +11444,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -11456,7 +11472,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -11484,7 +11500,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -11512,7 +11528,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -11540,7 +11556,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -11568,7 +11584,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -11596,7 +11612,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -11624,7 +11640,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11652,7 +11668,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11680,7 +11696,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11708,7 +11724,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11736,7 +11752,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11764,7 +11780,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11792,7 +11808,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11820,7 +11836,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11848,7 +11864,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11876,7 +11892,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11904,7 +11920,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11932,7 +11948,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11960,7 +11976,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11988,7 +12004,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -12016,7 +12032,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -12044,7 +12060,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -12072,7 +12088,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -12100,7 +12116,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -12128,7 +12144,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -12156,7 +12172,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -12184,7 +12200,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -12212,7 +12228,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -12240,7 +12256,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -12268,7 +12284,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -12296,7 +12312,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -12324,7 +12340,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -12352,7 +12368,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -12380,7 +12396,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -12408,7 +12424,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -12436,7 +12452,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -12464,7 +12480,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -12492,7 +12508,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -12520,7 +12536,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -12548,7 +12564,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -12576,7 +12592,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -12604,7 +12620,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -12632,7 +12648,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12660,7 +12676,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12688,7 +12704,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12716,7 +12732,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12744,7 +12760,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12772,7 +12788,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12800,7 +12816,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12828,7 +12844,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12856,7 +12872,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12884,7 +12900,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12912,7 +12928,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12940,7 +12956,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12968,7 +12984,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12996,7 +13012,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -13024,7 +13040,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -13052,7 +13068,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -13080,7 +13096,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -13108,7 +13124,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -13136,7 +13152,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -13164,7 +13180,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -13192,7 +13208,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -13220,7 +13236,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -13248,7 +13264,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -13276,7 +13292,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -13304,7 +13320,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -13332,7 +13348,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -13360,7 +13376,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -13388,7 +13404,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -13416,7 +13432,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -13444,7 +13460,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -13472,7 +13488,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -13500,7 +13516,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -13528,7 +13544,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -13556,7 +13572,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -13584,7 +13600,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -13612,7 +13628,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -13640,7 +13656,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13668,7 +13684,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13696,7 +13712,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13724,7 +13740,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13752,7 +13768,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13780,7 +13796,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13808,7 +13824,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13836,7 +13852,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13864,7 +13880,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13892,7 +13908,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13920,7 +13936,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13948,7 +13964,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13976,7 +13992,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -14004,7 +14020,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -14032,7 +14048,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -14060,7 +14076,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -14088,7 +14104,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -14116,7 +14132,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -14144,7 +14160,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -14172,7 +14188,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -14200,7 +14216,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -14228,7 +14244,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -14256,7 +14272,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -14284,7 +14300,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -14312,7 +14328,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -14340,7 +14356,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -14368,7 +14384,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -14396,7 +14412,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -14424,7 +14440,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -14452,7 +14468,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -14480,7 +14496,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -14508,7 +14524,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -14536,7 +14552,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -14564,7 +14580,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -14592,7 +14608,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -14620,7 +14636,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14648,7 +14664,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14676,7 +14692,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14704,7 +14720,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14732,7 +14748,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14760,7 +14776,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14788,7 +14804,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14816,7 +14832,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14844,7 +14860,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14872,7 +14888,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14900,7 +14916,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14928,7 +14944,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14956,7 +14972,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14984,7 +15000,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -15012,7 +15028,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -15040,7 +15056,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -15068,7 +15084,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -15096,7 +15112,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -15124,7 +15140,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -15152,7 +15168,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -15180,7 +15196,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -15208,7 +15224,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -15236,7 +15252,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -15264,7 +15280,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -15292,7 +15308,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -15320,7 +15336,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -15348,7 +15364,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -15376,7 +15392,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -15404,7 +15420,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -15432,7 +15448,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -15460,7 +15476,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -15488,7 +15504,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -15516,7 +15532,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -15544,7 +15560,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -15572,7 +15588,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -15600,7 +15616,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -15628,7 +15644,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15656,7 +15672,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15684,7 +15700,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15712,7 +15728,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15740,7 +15756,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15768,7 +15784,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15796,7 +15812,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15824,7 +15840,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15852,7 +15868,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15880,7 +15896,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15908,7 +15924,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15936,7 +15952,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15964,7 +15980,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15992,7 +16008,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -16020,7 +16036,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -16048,7 +16064,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -16076,7 +16092,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -16104,7 +16120,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -16132,7 +16148,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -16160,7 +16176,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -16188,7 +16204,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -16216,7 +16232,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -16244,7 +16260,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -16272,7 +16288,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -16300,7 +16316,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -16328,7 +16344,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -16356,7 +16372,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -16384,7 +16400,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -16412,7 +16428,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -16440,7 +16456,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -16468,7 +16484,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -16496,7 +16512,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -16524,7 +16540,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -16552,7 +16568,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -16580,7 +16596,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -16608,7 +16624,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -16636,7 +16652,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16664,7 +16680,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16692,7 +16708,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16720,7 +16736,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16748,7 +16764,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16776,7 +16792,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16804,7 +16820,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16832,7 +16848,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16860,7 +16876,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16888,7 +16904,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16916,7 +16932,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16944,7 +16960,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16972,7 +16988,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -17000,7 +17016,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -17028,7 +17044,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -17056,7 +17072,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -17084,7 +17100,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -17112,7 +17128,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -17140,7 +17156,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -17168,7 +17184,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -17196,7 +17212,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -17224,7 +17240,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -17252,7 +17268,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -17280,7 +17296,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -17308,7 +17324,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -17336,7 +17352,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -17364,7 +17380,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -17392,7 +17408,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -17420,7 +17436,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -17448,7 +17464,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -17476,7 +17492,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -17504,7 +17520,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -17532,7 +17548,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -17560,7 +17576,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -17588,7 +17604,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -17616,7 +17632,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17644,7 +17660,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17672,7 +17688,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17700,7 +17716,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17728,7 +17744,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17756,7 +17772,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17784,7 +17800,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17812,7 +17828,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17840,7 +17856,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17868,7 +17884,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17896,7 +17912,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17924,7 +17940,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17952,7 +17968,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17980,7 +17996,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -18008,7 +18024,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -18036,7 +18052,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -18064,7 +18080,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -18092,7 +18108,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -18120,7 +18136,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -18148,7 +18164,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -18176,7 +18192,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -18204,7 +18220,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -18232,7 +18248,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -18260,7 +18276,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -18288,7 +18304,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -18316,7 +18332,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -18344,7 +18360,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -18372,7 +18388,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -18400,7 +18416,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -18428,7 +18444,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -18456,7 +18472,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -18484,7 +18500,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -18512,7 +18528,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -18540,7 +18556,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -18568,7 +18584,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -18596,7 +18612,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -18624,7 +18640,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18652,7 +18668,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18680,7 +18696,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18708,7 +18724,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18736,7 +18752,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18764,7 +18780,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18792,7 +18808,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18820,7 +18836,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18848,7 +18864,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18876,7 +18892,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18904,7 +18920,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18932,7 +18948,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18960,7 +18976,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18988,7 +19004,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -19016,7 +19032,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -19044,7 +19060,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -19072,7 +19088,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -19100,7 +19116,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -19128,7 +19144,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -19156,7 +19172,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -19184,7 +19200,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -19212,7 +19228,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -19240,7 +19256,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -19268,7 +19284,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -19296,7 +19312,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -19324,7 +19340,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -19352,7 +19368,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -19380,7 +19396,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -19408,7 +19424,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -19436,7 +19452,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -19464,7 +19480,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -19492,7 +19508,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -19520,7 +19536,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -19548,7 +19564,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -19576,7 +19592,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -19604,7 +19620,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -19632,7 +19648,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19660,7 +19676,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19688,7 +19704,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19716,7 +19732,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19744,7 +19760,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19772,7 +19788,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19800,7 +19816,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19828,7 +19844,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19856,7 +19872,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19884,7 +19900,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19912,7 +19928,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19940,7 +19956,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19968,7 +19984,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19996,7 +20012,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -20024,7 +20040,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -20052,7 +20068,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -20080,7 +20096,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -20108,7 +20124,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -20136,7 +20152,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -20164,7 +20180,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -20192,7 +20208,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -20220,7 +20236,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -20248,7 +20264,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -20276,7 +20292,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -20304,7 +20320,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -20332,7 +20348,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -20360,7 +20376,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -20388,7 +20404,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -20416,7 +20432,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -20444,7 +20460,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -20472,7 +20488,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -20500,7 +20516,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -20528,7 +20544,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -20556,7 +20572,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -20584,7 +20600,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -20612,7 +20628,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -20640,7 +20656,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20668,7 +20684,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20696,7 +20712,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20724,7 +20740,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20752,7 +20768,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20780,7 +20796,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20808,7 +20824,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20836,7 +20852,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20864,7 +20880,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20892,7 +20908,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20920,7 +20936,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20948,7 +20964,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20976,7 +20992,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -21004,7 +21020,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -21032,7 +21048,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -21060,7 +21076,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -21088,7 +21104,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -21116,7 +21132,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -21144,7 +21160,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -21172,7 +21188,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -21200,7 +21216,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -21228,7 +21244,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -21256,7 +21272,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -21284,7 +21300,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -21312,7 +21328,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -21340,7 +21356,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -21368,7 +21384,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -21396,7 +21412,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -21424,7 +21440,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -21452,7 +21468,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -21480,7 +21496,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -21508,7 +21524,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -21536,7 +21552,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -21564,7 +21580,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -21592,7 +21608,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -21620,7 +21636,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21648,7 +21664,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21676,7 +21692,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21704,7 +21720,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21732,7 +21748,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21760,7 +21776,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21788,7 +21804,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21816,7 +21832,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21844,7 +21860,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21872,7 +21888,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21900,7 +21916,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21928,7 +21944,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21956,7 +21972,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21984,7 +22000,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -22012,7 +22028,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -22040,7 +22056,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -22068,7 +22084,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -22096,7 +22112,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -22124,7 +22140,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -22152,7 +22168,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -22180,7 +22196,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -22208,7 +22224,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -22236,7 +22252,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -22264,7 +22280,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -22292,7 +22308,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -22320,7 +22336,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -22348,7 +22364,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -22376,7 +22392,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -22404,7 +22420,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -22432,7 +22448,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -22460,7 +22476,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -22488,7 +22504,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -22516,7 +22532,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -22544,7 +22560,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -22572,7 +22588,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -22600,7 +22616,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -22628,7 +22644,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22656,7 +22672,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22684,7 +22700,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22712,7 +22728,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22740,7 +22756,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22768,7 +22784,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22796,7 +22812,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22824,7 +22840,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22852,7 +22868,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22880,7 +22896,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22908,7 +22924,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22936,7 +22952,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22964,7 +22980,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22992,7 +23008,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -23020,7 +23036,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -23048,7 +23064,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -23076,7 +23092,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -23104,7 +23120,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -23132,7 +23148,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -23160,7 +23176,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -23188,7 +23204,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -23216,7 +23232,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -23244,7 +23260,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -23272,7 +23288,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -23300,7 +23316,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -23328,7 +23344,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -23356,7 +23372,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -23384,7 +23400,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -23412,7 +23428,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -23440,7 +23456,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -23468,7 +23484,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -23496,7 +23512,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -23524,7 +23540,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -23552,7 +23568,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -23580,7 +23596,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -23608,7 +23624,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -23636,7 +23652,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23664,7 +23680,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23692,7 +23708,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23720,7 +23736,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23748,7 +23764,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23776,7 +23792,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23804,7 +23820,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23832,7 +23848,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23860,7 +23876,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23888,7 +23904,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23916,7 +23932,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23944,7 +23960,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23972,7 +23988,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -24000,7 +24016,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -24028,7 +24044,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -24056,7 +24072,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -24084,7 +24100,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -24112,7 +24128,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -24140,7 +24156,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -24168,7 +24184,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -24196,7 +24212,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -24224,7 +24240,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -24252,7 +24268,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -24280,7 +24296,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -24308,7 +24324,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -24336,7 +24352,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -24364,7 +24380,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -24392,7 +24408,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -24420,7 +24436,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -24448,7 +24464,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -24476,7 +24492,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -24504,7 +24520,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -24532,7 +24548,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -24560,7 +24576,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -24588,7 +24604,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -24616,7 +24632,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24644,7 +24660,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24672,7 +24688,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24700,7 +24716,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24728,7 +24744,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24756,7 +24772,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24784,7 +24800,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24812,7 +24828,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24840,7 +24856,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24868,7 +24884,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24896,7 +24912,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24924,7 +24940,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24952,7 +24968,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24980,7 +24996,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -25008,7 +25024,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -25036,7 +25052,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -25064,7 +25080,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -25092,7 +25108,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -25120,7 +25136,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -25148,7 +25164,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -25176,7 +25192,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -25204,7 +25220,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -25232,7 +25248,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -25260,7 +25276,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -25288,7 +25304,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -25316,7 +25332,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -25344,7 +25360,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -25372,7 +25388,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -25400,7 +25416,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -25428,7 +25444,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -25456,7 +25472,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -25484,7 +25500,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -25512,7 +25528,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -25540,7 +25556,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -25568,7 +25584,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -25596,7 +25612,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -25624,7 +25640,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25652,7 +25668,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25680,7 +25696,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25708,7 +25724,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25736,7 +25752,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25764,7 +25780,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25792,7 +25808,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25820,7 +25836,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25848,7 +25864,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25876,7 +25892,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25904,7 +25920,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25932,7 +25948,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25960,7 +25976,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25988,7 +26004,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -26016,7 +26032,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -26044,7 +26060,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -26072,7 +26088,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -26100,7 +26116,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -26128,7 +26144,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -26156,7 +26172,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -26184,7 +26200,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -26212,7 +26228,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -26240,7 +26256,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -26268,7 +26284,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -26296,7 +26312,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -26324,7 +26340,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -26352,7 +26368,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -26380,7 +26396,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -26408,7 +26424,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -26436,7 +26452,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -26464,7 +26480,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -26492,7 +26508,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -26520,7 +26536,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -26548,7 +26564,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -26576,7 +26592,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -26604,7 +26620,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -26632,7 +26648,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26660,7 +26676,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26688,7 +26704,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26716,7 +26732,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26744,7 +26760,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26772,7 +26788,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26800,7 +26816,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26828,7 +26844,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26856,7 +26872,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26884,7 +26900,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26912,7 +26928,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26940,7 +26956,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26968,7 +26984,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26996,7 +27012,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -27024,7 +27040,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -27052,7 +27068,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -27080,7 +27096,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -27108,7 +27124,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -27136,7 +27152,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -27164,7 +27180,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -27192,7 +27208,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -27220,7 +27236,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -27248,7 +27264,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -27276,7 +27292,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -27304,7 +27320,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -27332,7 +27348,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -27360,7 +27376,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -27388,7 +27404,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -27416,7 +27432,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -27444,7 +27460,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -27472,7 +27488,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -27500,7 +27516,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -27528,7 +27544,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -27556,7 +27572,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -27584,7 +27600,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -27612,7 +27628,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -27640,7 +27656,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27668,7 +27684,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27696,7 +27712,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27724,7 +27740,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27752,7 +27768,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27780,7 +27796,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27808,7 +27824,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27836,7 +27852,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27864,7 +27880,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27892,7 +27908,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27920,7 +27936,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27948,7 +27964,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27976,7 +27992,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -28004,7 +28020,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -28032,7 +28048,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -28060,7 +28076,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -28088,7 +28104,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -28116,7 +28132,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -28144,7 +28160,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -28172,7 +28188,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -28200,7 +28216,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -28228,7 +28244,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -28256,7 +28272,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -28284,7 +28300,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -28312,7 +28328,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -28340,7 +28356,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -28368,7 +28384,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -28396,7 +28412,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -28424,7 +28440,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -28452,7 +28468,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -28480,7 +28496,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -28508,7 +28524,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -28536,7 +28552,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -28564,7 +28580,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -28592,7 +28608,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -28620,7 +28636,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28648,7 +28664,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28676,7 +28692,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28704,7 +28720,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28732,7 +28748,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28760,7 +28776,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28788,7 +28804,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28816,7 +28832,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28844,7 +28860,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28872,7 +28888,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28900,7 +28916,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28928,7 +28944,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28956,7 +28972,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28984,7 +29000,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -29012,7 +29028,7 @@
       <c r="Y1000" s="3"/>
       <c r="Z1000" s="3"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1001" s="3"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
@@ -29040,7 +29056,7 @@
       <c r="Y1001" s="3"/>
       <c r="Z1001" s="3"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1002" s="3"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="3"/>
@@ -29070,67 +29086,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B22"/>
-    <hyperlink r:id="rId22" ref="B23"/>
-    <hyperlink r:id="rId23" ref="B24"/>
-    <hyperlink r:id="rId24" ref="B25"/>
-    <hyperlink r:id="rId25" ref="B26"/>
-    <hyperlink r:id="rId26" ref="B27"/>
-    <hyperlink r:id="rId27" ref="B28"/>
-    <hyperlink r:id="rId28" ref="B29"/>
-    <hyperlink r:id="rId29" ref="B30"/>
-    <hyperlink r:id="rId30" ref="B31"/>
-    <hyperlink r:id="rId31" ref="B32"/>
-    <hyperlink r:id="rId32" ref="B33"/>
-    <hyperlink r:id="rId33" ref="B34"/>
-    <hyperlink r:id="rId34" ref="B35"/>
-    <hyperlink r:id="rId35" ref="B36"/>
-    <hyperlink r:id="rId36" ref="B37"/>
-    <hyperlink r:id="rId37" ref="B38"/>
-    <hyperlink r:id="rId38" ref="B39"/>
-    <hyperlink r:id="rId39" ref="B40"/>
-    <hyperlink r:id="rId40" ref="B41"/>
-    <hyperlink r:id="rId41" ref="B42"/>
-    <hyperlink r:id="rId42" ref="B43"/>
-    <hyperlink r:id="rId43" ref="B44"/>
-    <hyperlink r:id="rId44" ref="B45"/>
-    <hyperlink r:id="rId45" ref="B46"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
   </hyperlinks>
-  <drawing r:id="rId46"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -29138,7 +29157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
@@ -29146,7 +29165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -29154,7 +29173,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -29162,7 +29181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -29170,7 +29189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
@@ -29178,7 +29197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -29186,7 +29205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
@@ -29194,7 +29213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
@@ -29202,7 +29221,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>104</v>
       </c>
@@ -29210,7 +29229,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>104</v>
       </c>
@@ -29218,7 +29237,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>104</v>
       </c>
@@ -29226,7 +29245,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>104</v>
       </c>
@@ -29234,7 +29253,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
@@ -29242,7 +29261,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>104</v>
       </c>
@@ -29250,7 +29269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>104</v>
       </c>
@@ -29258,7 +29277,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>104</v>
       </c>
@@ -29266,7 +29285,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>113</v>
       </c>
@@ -29274,7 +29293,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>113</v>
       </c>
@@ -29282,7 +29301,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>113</v>
       </c>
@@ -29290,7 +29309,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>117</v>
       </c>
@@ -29298,7 +29317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>117</v>
       </c>
@@ -29306,7 +29325,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>117</v>
       </c>
@@ -29314,7 +29333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>117</v>
       </c>
@@ -29322,7 +29341,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>117</v>
       </c>
@@ -29331,6 +29350,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>